--- a/dataDisplay/flaskapp/data/sums.xlsx
+++ b/dataDisplay/flaskapp/data/sums.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\sums_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>规则抽取对应表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
       </rPr>
       <t>O</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计方式，空白:个数，栏目名：值相加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
@@ -1060,13 +1064,21 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>69</v>
       </c>
     </row>

--- a/dataDisplay/flaskapp/data/sums.xlsx
+++ b/dataDisplay/flaskapp/data/sums.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>规则抽取对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表8.人才</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,42 +144,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省人才团队,%条线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>省人才</t>
   </si>
   <si>
-    <t>省人才,%条线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姑苏人才</t>
   </si>
   <si>
-    <t>姑苏人才,%条线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昆山团队</t>
   </si>
   <si>
     <t>昆山人才</t>
   </si>
   <si>
-    <t>成果科,省设施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成果科,苏州设施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成果科,江苏省企业研究生工作站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
   </si>
   <si>
@@ -193,10 +165,6 @@
     <t>认定年份</t>
   </si>
   <si>
-    <t>法规科,立项项目累计情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家类别</t>
   </si>
   <si>
@@ -210,35 +178,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省团队,项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省类别,项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姑苏类别</t>
   </si>
   <si>
-    <t>姑苏类别,项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昆山类别</t>
   </si>
   <si>
-    <t>合作交流科,产学研联合项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上报数据统计时间</t>
   </si>
   <si>
-    <t>合作交流科,产学研联合体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认定时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,27 +195,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应科室，sheet表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>决定年份的属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>筛选的属性名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的值，默认操作为 like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去重，对应属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与其他属性(忽略第一列)的加减关系（a+,m-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,8 +235,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计方式，空白:个数，栏目名：值相加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>表9.人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性栏</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>国家火炬计划高新技术企业（家）</t>
+  </si>
+  <si>
+    <t>国家级创新型试点企业</t>
+  </si>
+  <si>
+    <t>高新技术企业（家）2008年以来新标准</t>
+  </si>
+  <si>
+    <t>技术先进型服务企业（家）</t>
+  </si>
+  <si>
+    <t>省创新型企业（家）</t>
+  </si>
+  <si>
+    <t>科技型中小企业</t>
+  </si>
+  <si>
+    <t>国家重点新产品</t>
+  </si>
+  <si>
+    <t>国家自主创新产品</t>
+  </si>
+  <si>
+    <t>省高品</t>
+  </si>
+  <si>
+    <t>省自主创新产品</t>
+  </si>
+  <si>
+    <t>省重点新产品</t>
+  </si>
+  <si>
+    <t>民营科技企业（家）</t>
+  </si>
+  <si>
+    <t>苏州高品</t>
+  </si>
+  <si>
+    <t>软件企业</t>
+  </si>
+  <si>
+    <t>软件产品</t>
+  </si>
+  <si>
+    <t>决定年份的属性</t>
+  </si>
+  <si>
+    <t>国家级认定年份</t>
+  </si>
+  <si>
+    <t>筛选的属性名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>与其他属性(忽略第一列)的加减关系（a+,m-）</t>
+  </si>
+  <si>
+    <t>研究生工作站（家）</t>
+  </si>
+  <si>
+    <t>院士工作站（家）</t>
+  </si>
+  <si>
+    <t>省工程技术研究中心</t>
+  </si>
+  <si>
+    <t>省重点企业研发机构</t>
+  </si>
+  <si>
+    <t>省外资研发机构</t>
+  </si>
+  <si>
+    <t>苏州工程技术研究中心</t>
+  </si>
+  <si>
+    <t>苏州研发机构内外资</t>
+  </si>
+  <si>
+    <t>苏州外资研发机构</t>
+  </si>
+  <si>
+    <t>企业研究院（家）：省级</t>
+  </si>
+  <si>
+    <t>企业研究院（家）：苏州</t>
+  </si>
+  <si>
+    <t>重点实验室（家）：省级</t>
+  </si>
+  <si>
+    <t>重点实验室（家）：苏州</t>
+  </si>
+  <si>
+    <t>台资苏州外资研发机构</t>
+  </si>
+  <si>
+    <t>昆山研发机构</t>
+  </si>
+  <si>
+    <t>外资研发机构</t>
+  </si>
+  <si>
+    <t>内资研发机构</t>
+  </si>
+  <si>
+    <t>昆山市级认定年份</t>
+  </si>
+  <si>
+    <t>工程技术研究中心</t>
+  </si>
+  <si>
+    <t>重大研发机构（企业研究院）</t>
+  </si>
+  <si>
+    <t>企业研究院</t>
+  </si>
+  <si>
+    <t>重点实验室</t>
+  </si>
+  <si>
+    <t>表3.企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.研发机构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应科室,sheet表</t>
+  </si>
+  <si>
+    <t>成果科,省设施</t>
+  </si>
+  <si>
+    <t>成果科,苏州设施</t>
+  </si>
+  <si>
+    <t>成果科,江苏省企业研究生工作站</t>
+  </si>
+  <si>
+    <t>法规科,立项项目累计情况</t>
+  </si>
+  <si>
+    <t>合作交流科,产学研联合项目</t>
+  </si>
+  <si>
+    <t>合作交流科,产学研联合体</t>
+  </si>
+  <si>
+    <t>省团队,项目名称</t>
+  </si>
+  <si>
+    <t>省类别,项目名称</t>
+  </si>
+  <si>
+    <t>姑苏类别,项目名称</t>
+  </si>
+  <si>
+    <t>对应的值,默认操作为 like</t>
+  </si>
+  <si>
+    <t>省人才团队,%条线</t>
+  </si>
+  <si>
+    <t>省人才,%条线</t>
+  </si>
+  <si>
+    <t>姑苏人才,%条线</t>
+  </si>
+  <si>
+    <t>去重,对应属性</t>
+  </si>
+  <si>
+    <t>统计方式,空白:个数,栏目名：值相加</t>
+  </si>
+  <si>
+    <t>高新科,国家火炬计划重点高新技术企业</t>
+  </si>
+  <si>
+    <t>高新科,高新技术企业(08年以后)</t>
+  </si>
+  <si>
+    <t>高新科,技术先进型服务企业</t>
+  </si>
+  <si>
+    <t>高新科,省创新型企业</t>
+  </si>
+  <si>
+    <t>高新科,省科技型中小企业</t>
+  </si>
+  <si>
+    <t>高新科,国家重点新产品计划</t>
+  </si>
+  <si>
+    <t>高新科,国家自主创新产品</t>
+  </si>
+  <si>
+    <t>高新科,省高新技术产品</t>
+  </si>
+  <si>
+    <t>高新科,省自主创新产品</t>
+  </si>
+  <si>
+    <t>高新科,苏州高新技术产品</t>
+  </si>
+  <si>
+    <t>成果科,各级研发机构</t>
+  </si>
+  <si>
+    <t>表7.项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “863”“973”计划</t>
+  </si>
+  <si>
+    <t>国际科技合作项目</t>
+  </si>
+  <si>
+    <t>国家中小企业创新基金项目</t>
+  </si>
+  <si>
+    <t>国家科技重大专项</t>
+  </si>
+  <si>
+    <t>国家重点研发计划</t>
+  </si>
+  <si>
+    <t>火炬计划</t>
+  </si>
+  <si>
+    <t>星火计划</t>
+  </si>
+  <si>
+    <t>省科技成果转化专项</t>
+  </si>
+  <si>
+    <t>立项年份</t>
+  </si>
+  <si>
+    <t>立项时间</t>
+  </si>
+  <si>
+    <t>立项年度</t>
+  </si>
+  <si>
+    <t>列入国家级年度</t>
+  </si>
+  <si>
+    <t>高新科,国家863计划</t>
+  </si>
+  <si>
+    <t>合作科,国家级国际科技合作与交流专项</t>
+  </si>
+  <si>
+    <t>高新科,科技型中小企业技术创新基金项目</t>
+  </si>
+  <si>
+    <t>高新科,国家科技重大专项</t>
+  </si>
+  <si>
+    <t>高新科,国家火炬计划项目</t>
+  </si>
+  <si>
+    <t>农社科,国家星火计划</t>
+  </si>
+  <si>
+    <t>成果科,省成果</t>
   </si>
 </sst>
 </file>
@@ -711,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,7 +958,7 @@
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="4" customWidth="1"/>
@@ -755,317 +990,317 @@
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="K9" s="6"/>
       <c r="R9" s="6"/>
@@ -1073,13 +1308,461 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="K11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="P13" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/dataDisplay/flaskapp/data/sums.xlsx
+++ b/dataDisplay/flaskapp/data/sums.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t>规则抽取对应表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,13 +362,7 @@
     <t>工程技术研究中心</t>
   </si>
   <si>
-    <t>重大研发机构（企业研究院）</t>
-  </si>
-  <si>
     <t>企业研究院</t>
-  </si>
-  <si>
-    <t>重点实验室</t>
   </si>
   <si>
     <t>表3.企业</t>
@@ -452,94 +446,111 @@
     <t>高新科,国家火炬计划重点高新技术企业</t>
   </si>
   <si>
+    <t>高新科,技术先进型服务企业</t>
+  </si>
+  <si>
+    <t>高新科,省创新型企业</t>
+  </si>
+  <si>
+    <t>高新科,省科技型中小企业</t>
+  </si>
+  <si>
+    <t>高新科,国家重点新产品计划</t>
+  </si>
+  <si>
+    <t>高新科,国家自主创新产品</t>
+  </si>
+  <si>
+    <t>高新科,省高新技术产品</t>
+  </si>
+  <si>
+    <t>高新科,省自主创新产品</t>
+  </si>
+  <si>
+    <t>高新科,苏州高新技术产品</t>
+  </si>
+  <si>
+    <t>成果科,各级研发机构</t>
+  </si>
+  <si>
+    <t>表7.项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “863”“973”计划</t>
+  </si>
+  <si>
+    <t>国际科技合作项目</t>
+  </si>
+  <si>
+    <t>国家中小企业创新基金项目</t>
+  </si>
+  <si>
+    <t>国家科技重大专项</t>
+  </si>
+  <si>
+    <t>国家重点研发计划</t>
+  </si>
+  <si>
+    <t>火炬计划</t>
+  </si>
+  <si>
+    <t>星火计划</t>
+  </si>
+  <si>
+    <t>省科技成果转化专项</t>
+  </si>
+  <si>
+    <t>立项年份</t>
+  </si>
+  <si>
+    <t>立项时间</t>
+  </si>
+  <si>
+    <t>立项年度</t>
+  </si>
+  <si>
+    <t>列入国家级年度</t>
+  </si>
+  <si>
+    <t>高新科,国家863计划</t>
+  </si>
+  <si>
+    <t>合作科,国家级国际科技合作与交流专项</t>
+  </si>
+  <si>
+    <t>高新科,科技型中小企业技术创新基金项目</t>
+  </si>
+  <si>
+    <t>高新科,国家科技重大专项</t>
+  </si>
+  <si>
+    <t>高新科,国家火炬计划项目</t>
+  </si>
+  <si>
+    <t>农社科,国家星火计划</t>
+  </si>
+  <si>
+    <t>成果科,省成果</t>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大研发机构（企业研究院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%重点实验室%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高新科,高新技术企业(08年以后)</t>
-  </si>
-  <si>
-    <t>高新科,技术先进型服务企业</t>
-  </si>
-  <si>
-    <t>高新科,省创新型企业</t>
-  </si>
-  <si>
-    <t>高新科,省科技型中小企业</t>
-  </si>
-  <si>
-    <t>高新科,国家重点新产品计划</t>
-  </si>
-  <si>
-    <t>高新科,国家自主创新产品</t>
-  </si>
-  <si>
-    <t>高新科,省高新技术产品</t>
-  </si>
-  <si>
-    <t>高新科,省自主创新产品</t>
-  </si>
-  <si>
-    <t>高新科,苏州高新技术产品</t>
-  </si>
-  <si>
-    <t>成果科,各级研发机构</t>
-  </si>
-  <si>
-    <t>表7.项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “863”“973”计划</t>
-  </si>
-  <si>
-    <t>国际科技合作项目</t>
-  </si>
-  <si>
-    <t>国家中小企业创新基金项目</t>
-  </si>
-  <si>
-    <t>国家科技重大专项</t>
-  </si>
-  <si>
-    <t>国家重点研发计划</t>
-  </si>
-  <si>
-    <t>火炬计划</t>
-  </si>
-  <si>
-    <t>星火计划</t>
-  </si>
-  <si>
-    <t>省科技成果转化专项</t>
-  </si>
-  <si>
-    <t>立项年份</t>
-  </si>
-  <si>
-    <t>立项时间</t>
-  </si>
-  <si>
-    <t>立项年度</t>
-  </si>
-  <si>
-    <t>列入国家级年度</t>
-  </si>
-  <si>
-    <t>高新科,国家863计划</t>
-  </si>
-  <si>
-    <t>合作科,国家级国际科技合作与交流专项</t>
-  </si>
-  <si>
-    <t>高新科,科技型中小企业技术创新基金项目</t>
-  </si>
-  <si>
-    <t>高新科,国家科技重大专项</t>
-  </si>
-  <si>
-    <t>高新科,国家火炬计划项目</t>
-  </si>
-  <si>
-    <t>农社科,国家星火计划</t>
-  </si>
-  <si>
-    <t>成果科,省成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -948,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,7 +970,7 @@
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="4" customWidth="1"/>
@@ -1078,58 +1089,58 @@
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="V4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="X4" s="2"/>
     </row>
@@ -1213,19 +1224,19 @@
         <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>17</v>
@@ -1239,7 +1250,7 @@
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1260,19 +1271,19 @@
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>17</v>
@@ -1286,7 +1297,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>42</v>
@@ -1300,7 +1311,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K9" s="6"/>
       <c r="R9" s="6"/>
@@ -1323,7 +1334,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -1384,37 +1395,37 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -1462,17 +1473,17 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -1482,7 +1493,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -1549,31 +1560,31 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="N24" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -1609,38 +1620,56 @@
       <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>97</v>
+      <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -1650,7 +1679,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1664,54 +1693,54 @@
         <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1719,25 +1748,25 @@
         <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1747,17 +1776,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
